--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Krav</t>
   </si>
@@ -54,15 +54,6 @@
     <t>AF1.4 Ta bort ett videoklipp</t>
   </si>
   <si>
-    <t>AF1.5 Skriva en kommentar</t>
-  </si>
-  <si>
-    <t>AF1.6 Redigera en kommentar</t>
-  </si>
-  <si>
-    <t>AF1.7 Radera en kommentar</t>
-  </si>
-  <si>
     <t>BK1</t>
   </si>
   <si>
@@ -85,6 +76,12 @@
   </si>
   <si>
     <t>F1 Inloggning via Facebook</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>AF1.5 Kommentar via Facebook</t>
   </si>
 </sst>
 </file>
@@ -435,12 +432,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -477,16 +474,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -497,16 +494,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -517,16 +514,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -537,16 +534,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -554,76 +551,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -631,13 +588,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -645,16 +605,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>7</v>

--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Krav</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>AF1.5 Kommentar via Facebook</t>
+  </si>
+  <si>
+    <t>AF1.6 Betygsättning</t>
+  </si>
+  <si>
+    <t>AF 1.7 Kategorier</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +488,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -502,6 +511,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -522,6 +534,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -542,6 +557,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -566,6 +584,40 @@
         <v>13</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>

--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Krav</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Användare</t>
-  </si>
-  <si>
-    <t>AF1.8 Sökning på bild</t>
-  </si>
-  <si>
-    <t>AF1.1</t>
   </si>
   <si>
     <t>B2 Databas</t>
@@ -435,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -512,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -535,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -558,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -569,7 +563,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -579,6 +573,9 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -589,7 +586,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -606,7 +603,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -616,6 +613,9 @@
       </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -631,16 +631,16 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -648,27 +648,13 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
         <v>7</v>
       </c>
     </row>

--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>Krav</t>
   </si>
@@ -57,9 +57,6 @@
     <t>BK1</t>
   </si>
   <si>
-    <t>BK2, BK2.1</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -82,13 +79,25 @@
   </si>
   <si>
     <t>AF 1.7 Kategorier</t>
+  </si>
+  <si>
+    <t>AF1.8 Redigera ett videoklipp</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>BK2, BK1</t>
+  </si>
+  <si>
+    <t>AF1.9 Redigera bild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,7 +260,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -446,7 +453,7 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,22 +475,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -492,21 +500,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -515,21 +523,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -538,21 +546,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -561,101 +569,159 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -665,24 +731,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Krav</t>
   </si>
@@ -54,18 +54,12 @@
     <t>AF1.4 Ta bort ett videoklipp</t>
   </si>
   <si>
-    <t>BK1</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
     <t>Användare</t>
   </si>
   <si>
-    <t>B2 Databas</t>
-  </si>
-  <si>
     <t>F1 Inloggning via Facebook</t>
   </si>
   <si>
@@ -75,29 +69,35 @@
     <t>AF1.5 Kommentar via Facebook</t>
   </si>
   <si>
-    <t>AF1.6 Betygsättning</t>
-  </si>
-  <si>
     <t>AF 1.7 Kategorier</t>
   </si>
   <si>
     <t>AF1.8 Redigera ett videoklipp</t>
   </si>
   <si>
-    <t>Not done</t>
-  </si>
-  <si>
-    <t>BK2, BK1</t>
-  </si>
-  <si>
     <t>AF1.9 Redigera bild</t>
+  </si>
+  <si>
+    <t>BK1, BK5</t>
+  </si>
+  <si>
+    <t>BK1, BK2</t>
+  </si>
+  <si>
+    <t>BK1, BK3</t>
+  </si>
+  <si>
+    <t>BK1, BK2, BK3</t>
+  </si>
+  <si>
+    <t>B1 Databas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,14 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -453,7 +455,7 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,248 +479,225 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -731,24 +710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Krav.xlsx
+++ b/Krav.xlsx
@@ -90,7 +90,7 @@
     <t>BK1, BK2, BK3</t>
   </si>
   <si>
-    <t>B1 Databas</t>
+    <t>F2 Databas</t>
   </si>
 </sst>
 </file>
@@ -441,12 +441,12 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -594,9 +594,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -611,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -619,7 +639,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -627,11 +647,14 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -639,7 +662,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -647,11 +670,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
         <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -659,7 +682,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -672,33 +695,12 @@
       </c>
       <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
       <c r="G12">
         <v>5</v>
       </c>
